--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -771,7 +771,7 @@
   <dimension ref="A5:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+      <selection activeCell="O82" sqref="O82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -875,7 +875,7 @@
         <v>13.04</v>
       </c>
       <c r="Q7">
-        <f>O7*D7</f>
+        <f t="shared" ref="Q7:Q15" si="0">O7*D7</f>
         <v>13.04</v>
       </c>
     </row>
@@ -924,7 +924,7 @@
         <v>1.86</v>
       </c>
       <c r="Q8">
-        <f>O8*D8</f>
+        <f t="shared" si="0"/>
         <v>1.86</v>
       </c>
     </row>
@@ -957,7 +957,7 @@
         <v>1.0273000000000001</v>
       </c>
       <c r="K9" s="18">
-        <f>J9</f>
+        <f t="shared" ref="K9:K15" si="1">J9</f>
         <v>1.0273000000000001</v>
       </c>
       <c r="L9" s="18">
@@ -973,7 +973,7 @@
         <v>0.63675000000000004</v>
       </c>
       <c r="Q9">
-        <f>O9*D9</f>
+        <f t="shared" si="0"/>
         <v>0.63675000000000004</v>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
         <v>0.155</v>
       </c>
       <c r="K10" s="18">
-        <f>J10</f>
+        <f t="shared" si="1"/>
         <v>0.155</v>
       </c>
       <c r="L10" s="18">
@@ -1028,7 +1028,7 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="Q10">
-        <f>O10*D10</f>
+        <f t="shared" si="0"/>
         <v>0.14499999999999999</v>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
         <v>0.18179999999999999</v>
       </c>
       <c r="K11" s="18">
-        <f>J11</f>
+        <f t="shared" si="1"/>
         <v>0.18179999999999999</v>
       </c>
       <c r="L11" s="18">
@@ -1082,7 +1082,7 @@
         <v>0.13089999999999999</v>
       </c>
       <c r="Q11">
-        <f>O11*D11</f>
+        <f t="shared" si="0"/>
         <v>0.13089999999999999</v>
       </c>
     </row>
@@ -1117,27 +1117,27 @@
         <v>0.59499999999999997</v>
       </c>
       <c r="K12" s="18">
-        <f>J12</f>
+        <f t="shared" si="1"/>
         <v>0.59499999999999997</v>
       </c>
       <c r="L12" s="18">
-        <f t="shared" ref="L12:O12" si="0">K12</f>
+        <f t="shared" ref="L12:O12" si="2">K12</f>
         <v>0.59499999999999997</v>
       </c>
       <c r="M12" s="18">
+        <f t="shared" si="2"/>
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="N12" s="18">
+        <f t="shared" si="2"/>
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="O12" s="19">
+        <f t="shared" si="2"/>
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="0"/>
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="N12" s="18">
-        <f t="shared" si="0"/>
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="O12" s="19">
-        <f t="shared" si="0"/>
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="Q12">
-        <f>O12*D12</f>
         <v>0.59499999999999997</v>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
         <v>0.254</v>
       </c>
       <c r="K13" s="18">
-        <f>J13</f>
+        <f t="shared" si="1"/>
         <v>0.254</v>
       </c>
       <c r="L13" s="18">
@@ -1190,7 +1190,7 @@
         <v>0.19</v>
       </c>
       <c r="Q13">
-        <f>O13*D13</f>
+        <f t="shared" si="0"/>
         <v>0.38</v>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
         <v>0.221</v>
       </c>
       <c r="K14" s="18">
-        <f>J14</f>
+        <f t="shared" si="1"/>
         <v>0.221</v>
       </c>
       <c r="L14" s="18">
@@ -1244,7 +1244,7 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="Q14">
-        <f>O14*D14</f>
+        <f t="shared" si="0"/>
         <v>0.18099999999999999</v>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
         <v>0.23699999999999999</v>
       </c>
       <c r="K15" s="18">
-        <f>J15</f>
+        <f t="shared" si="1"/>
         <v>0.23699999999999999</v>
       </c>
       <c r="L15" s="18">
@@ -1299,7 +1299,7 @@
         <v>0.183</v>
       </c>
       <c r="Q15">
-        <f>O15*D15</f>
+        <f t="shared" si="0"/>
         <v>0.183</v>
       </c>
     </row>
@@ -1603,11 +1603,11 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="H23" s="18">
-        <f t="shared" ref="H23:I23" si="1">G23</f>
+        <f t="shared" ref="H23:I23" si="3">G23</f>
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="I23" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="J23" s="18">
@@ -1957,11 +1957,11 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="H32" s="18">
-        <f t="shared" ref="H32:I32" si="2">G32</f>
+        <f t="shared" ref="H32:I32" si="4">G32</f>
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="I32" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="J32" s="18">
@@ -1972,11 +1972,11 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="L32" s="18">
-        <f t="shared" ref="L32:M32" si="3">K32</f>
+        <f t="shared" ref="L32:M32" si="5">K32</f>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="M32" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="N32" s="18">
@@ -2009,15 +2009,15 @@
         <v>1.56</v>
       </c>
       <c r="G33" s="18">
-        <f t="shared" ref="G33:I33" si="4">F33</f>
+        <f t="shared" ref="G33:I33" si="6">F33</f>
         <v>1.56</v>
       </c>
       <c r="H33" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.56</v>
       </c>
       <c r="I33" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.56</v>
       </c>
       <c r="J33" s="18">
@@ -2078,11 +2078,11 @@
         <v>0.58699999999999997</v>
       </c>
       <c r="H35" s="18">
-        <f t="shared" ref="H35:I35" si="5">G35</f>
+        <f t="shared" ref="H35:I35" si="7">G35</f>
         <v>0.58699999999999997</v>
       </c>
       <c r="I35" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.58699999999999997</v>
       </c>
       <c r="J35" s="18">
@@ -2093,11 +2093,11 @@
         <v>0.379</v>
       </c>
       <c r="L35" s="18">
-        <f t="shared" ref="L35:M35" si="6">K35</f>
+        <f t="shared" ref="L35:M35" si="8">K35</f>
         <v>0.379</v>
       </c>
       <c r="M35" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.379</v>
       </c>
       <c r="N35" s="18">
@@ -2132,11 +2132,11 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="H36" s="18">
-        <f t="shared" ref="H36:I36" si="7">G36</f>
+        <f t="shared" ref="H36:I36" si="9">G36</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="I36" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="J36" s="18">
@@ -2183,11 +2183,11 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G37" s="18">
-        <f t="shared" ref="G37:H37" si="8">F37</f>
+        <f t="shared" ref="G37:H37" si="10">F37</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="H37" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="I37" s="18">
@@ -2198,11 +2198,11 @@
         <v>0.04</v>
       </c>
       <c r="K37" s="18">
-        <f t="shared" ref="K37:L37" si="9">J37</f>
+        <f t="shared" ref="K37:L37" si="11">J37</f>
         <v>0.04</v>
       </c>
       <c r="L37" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.04</v>
       </c>
       <c r="M37" s="18">
@@ -3175,51 +3175,51 @@
         <v>1</v>
       </c>
       <c r="E65" s="14">
-        <v>12.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F65" s="15">
         <f>E65</f>
-        <v>12.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G65" s="15">
-        <f t="shared" ref="G65:O65" si="10">F65</f>
-        <v>12.3</v>
+        <f t="shared" ref="G65:O65" si="12">F65</f>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H65" s="15">
-        <f t="shared" si="10"/>
-        <v>12.3</v>
+        <f t="shared" si="12"/>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I65" s="15">
-        <f t="shared" si="10"/>
-        <v>12.3</v>
+        <f t="shared" si="12"/>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J65" s="15">
-        <f t="shared" si="10"/>
-        <v>12.3</v>
+        <f t="shared" si="12"/>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K65" s="15">
-        <f t="shared" si="10"/>
-        <v>12.3</v>
+        <f t="shared" si="12"/>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L65" s="15">
-        <f t="shared" si="10"/>
-        <v>12.3</v>
+        <f t="shared" si="12"/>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M65" s="15">
-        <f t="shared" si="10"/>
-        <v>12.3</v>
+        <f t="shared" si="12"/>
+        <v>4.0999999999999996</v>
       </c>
       <c r="N65" s="15">
-        <f t="shared" si="10"/>
-        <v>12.3</v>
+        <f t="shared" si="12"/>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O65" s="16">
-        <f t="shared" si="10"/>
-        <v>12.3</v>
+        <f t="shared" si="12"/>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q65">
         <f>O65*D65</f>
-        <v>12.3</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="66" spans="2:17">
@@ -3558,43 +3558,43 @@
         <v>74.399400000000028</v>
       </c>
       <c r="F80" s="3">
-        <f t="shared" ref="F80:O80" si="11">SUMPRODUCT($D$7:$D$61,F7:F61)</f>
+        <f t="shared" ref="F80:O80" si="13">SUMPRODUCT($D$7:$D$61,F7:F61)</f>
         <v>67.065400000000039</v>
       </c>
       <c r="G80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>64.225400000000008</v>
       </c>
       <c r="H80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>62.514800000000001</v>
       </c>
       <c r="I80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>59.378999999999998</v>
       </c>
       <c r="J80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>53.703799999999987</v>
       </c>
       <c r="K80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>51.483799999999988</v>
       </c>
       <c r="L80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>50.541399999999989</v>
       </c>
       <c r="M80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>45.55619999999999</v>
       </c>
       <c r="N80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31.607650000000014</v>
       </c>
       <c r="O80" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>29.306780000000018</v>
       </c>
     </row>
@@ -3607,47 +3607,47 @@
       </c>
       <c r="E81" s="5">
         <f>SUM(E65:E69)</f>
-        <v>37.980000000000004</v>
+        <v>29.78</v>
       </c>
       <c r="F81" s="6">
-        <f t="shared" ref="F81:O81" si="12">SUM(F65:F69)</f>
-        <v>37.980000000000004</v>
+        <f t="shared" ref="F81:O81" si="14">SUM(F65:F69)</f>
+        <v>29.78</v>
       </c>
       <c r="G81" s="6">
-        <f t="shared" si="12"/>
-        <v>37.980000000000004</v>
+        <f t="shared" si="14"/>
+        <v>29.78</v>
       </c>
       <c r="H81" s="6">
-        <f t="shared" si="12"/>
-        <v>37.980000000000004</v>
+        <f t="shared" si="14"/>
+        <v>29.78</v>
       </c>
       <c r="I81" s="6">
-        <f t="shared" si="12"/>
-        <v>37.980000000000004</v>
+        <f t="shared" si="14"/>
+        <v>29.78</v>
       </c>
       <c r="J81" s="6">
-        <f t="shared" si="12"/>
-        <v>37.980000000000004</v>
+        <f t="shared" si="14"/>
+        <v>29.78</v>
       </c>
       <c r="K81" s="6">
-        <f t="shared" si="12"/>
-        <v>37.980000000000004</v>
+        <f t="shared" si="14"/>
+        <v>29.78</v>
       </c>
       <c r="L81" s="6">
-        <f t="shared" si="12"/>
-        <v>37.980000000000004</v>
+        <f t="shared" si="14"/>
+        <v>29.78</v>
       </c>
       <c r="M81" s="6">
-        <f t="shared" si="12"/>
-        <v>37.980000000000004</v>
+        <f t="shared" si="14"/>
+        <v>29.78</v>
       </c>
       <c r="N81" s="6">
-        <f t="shared" si="12"/>
-        <v>37.980000000000004</v>
+        <f t="shared" si="14"/>
+        <v>29.78</v>
       </c>
       <c r="O81" s="7">
-        <f t="shared" si="12"/>
-        <v>37.980000000000004</v>
+        <f t="shared" si="14"/>
+        <v>29.78</v>
       </c>
     </row>
     <row r="82" spans="3:15" ht="15" thickBot="1">
@@ -3662,43 +3662,43 @@
         <v>16</v>
       </c>
       <c r="F82" s="9">
-        <f t="shared" ref="F82:O82" si="13">SUM(F73:F74)</f>
+        <f t="shared" ref="F82:O82" si="15">SUM(F73:F74)</f>
         <v>16</v>
       </c>
       <c r="G82" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="H82" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="I82" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="J82" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="K82" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="L82" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="M82" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="N82" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="O82" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
     </row>
@@ -3707,47 +3707,47 @@
         <v>91</v>
       </c>
       <c r="E84">
-        <f>E6</f>
+        <f t="shared" ref="E84:O84" si="16">E6</f>
         <v>1</v>
       </c>
       <c r="F84">
-        <f>F6</f>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="G84">
-        <f>G6</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="H84">
-        <f>H6</f>
+        <f t="shared" si="16"/>
         <v>25</v>
       </c>
       <c r="I84">
-        <f>I6</f>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="J84">
-        <f>J6</f>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="K84">
-        <f>K6</f>
+        <f t="shared" si="16"/>
         <v>200</v>
       </c>
       <c r="L84">
-        <f>L6</f>
+        <f t="shared" si="16"/>
         <v>250</v>
       </c>
       <c r="M84">
-        <f>M6</f>
+        <f t="shared" si="16"/>
         <v>500</v>
       </c>
       <c r="N84">
-        <f>N6</f>
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="O84">
-        <f>O6</f>
+        <f t="shared" si="16"/>
         <v>2000</v>
       </c>
     </row>
@@ -3756,48 +3756,48 @@
         <v>74</v>
       </c>
       <c r="E85" s="11">
-        <f>$D$80*E80+$D$81*E81+$D$82*E82</f>
-        <v>128.37940000000003</v>
+        <f t="shared" ref="E85:O85" si="17">$D$80*E80+$D$81*E81+$D$82*E82</f>
+        <v>120.17940000000003</v>
       </c>
       <c r="F85" s="12">
-        <f>$D$80*F80+$D$81*F81+$D$82*F82</f>
-        <v>121.04540000000004</v>
+        <f t="shared" si="17"/>
+        <v>112.84540000000004</v>
       </c>
       <c r="G85" s="12">
-        <f>$D$80*G80+$D$81*G81+$D$82*G82</f>
-        <v>118.20540000000001</v>
+        <f t="shared" si="17"/>
+        <v>110.00540000000001</v>
       </c>
       <c r="H85" s="12">
-        <f>$D$80*H80+$D$81*H81+$D$82*H82</f>
-        <v>116.4948</v>
+        <f t="shared" si="17"/>
+        <v>108.29480000000001</v>
       </c>
       <c r="I85" s="12">
-        <f>$D$80*I80+$D$81*I81+$D$82*I82</f>
-        <v>113.35900000000001</v>
+        <f t="shared" si="17"/>
+        <v>105.15899999999999</v>
       </c>
       <c r="J85" s="12">
-        <f>$D$80*J80+$D$81*J81+$D$82*J82</f>
-        <v>107.68379999999999</v>
+        <f t="shared" si="17"/>
+        <v>99.483799999999988</v>
       </c>
       <c r="K85" s="12">
-        <f>$D$80*K80+$D$81*K81+$D$82*K82</f>
-        <v>105.46379999999999</v>
+        <f t="shared" si="17"/>
+        <v>97.263799999999989</v>
       </c>
       <c r="L85" s="12">
-        <f>$D$80*L80+$D$81*L81+$D$82*L82</f>
-        <v>104.5214</v>
+        <f t="shared" si="17"/>
+        <v>96.321399999999983</v>
       </c>
       <c r="M85" s="12">
-        <f>$D$80*M80+$D$81*M81+$D$82*M82</f>
-        <v>99.536199999999994</v>
+        <f t="shared" si="17"/>
+        <v>91.336199999999991</v>
       </c>
       <c r="N85" s="12">
-        <f>$D$80*N80+$D$81*N81+$D$82*N82</f>
-        <v>85.587650000000025</v>
+        <f t="shared" si="17"/>
+        <v>77.387650000000008</v>
       </c>
       <c r="O85" s="13">
-        <f>$D$80*O80+$D$81*O81+$D$82*O82</f>
-        <v>83.286780000000022</v>
+        <f t="shared" si="17"/>
+        <v>75.086780000000019</v>
       </c>
     </row>
   </sheetData>
